--- a/parts/data/ETH.xlsx
+++ b/parts/data/ETH.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F365"/>
+  <dimension ref="A1:G365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Volume</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ema</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +491,9 @@
       <c r="F2" t="n">
         <v>9776191466</v>
       </c>
+      <c r="G2" t="n">
+        <v>3769.697021484375</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,6 +516,9 @@
       <c r="F3" t="n">
         <v>9881471548</v>
       </c>
+      <c r="G3" t="n">
+        <v>3784.664001464844</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,6 +541,9 @@
       <c r="F4" t="n">
         <v>12080777893</v>
       </c>
+      <c r="G4" t="n">
+        <v>3778.84309387207</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -552,6 +566,9 @@
       <c r="F5" t="n">
         <v>14030925983</v>
       </c>
+      <c r="G5" t="n">
+        <v>3782.646480560303</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -574,6 +591,9 @@
       <c r="F6" t="n">
         <v>18061338502</v>
       </c>
+      <c r="G6" t="n">
+        <v>3724.581601142883</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -596,6 +616,9 @@
       <c r="F7" t="n">
         <v>24293791313</v>
       </c>
+      <c r="G7" t="n">
+        <v>3648.038251638412</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -618,6 +641,9 @@
       <c r="F8" t="n">
         <v>24494179209</v>
       </c>
+      <c r="G8" t="n">
+        <v>3534.331301033497</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -640,6 +666,9 @@
       <c r="F9" t="n">
         <v>16037732700</v>
       </c>
+      <c r="G9" t="n">
+        <v>3423.741639837623</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -662,6 +691,9 @@
       <c r="F10" t="n">
         <v>12334683863</v>
       </c>
+      <c r="G10" t="n">
+        <v>3357.244096089154</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -684,6 +716,9 @@
       <c r="F11" t="n">
         <v>19535744145</v>
       </c>
+      <c r="G11" t="n">
+        <v>3288.707547164522</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -706,6 +741,9 @@
       <c r="F12" t="n">
         <v>15211447193</v>
       </c>
+      <c r="G12" t="n">
+        <v>3276.058553439798</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -728,6 +766,9 @@
       <c r="F13" t="n">
         <v>16662871689</v>
       </c>
+      <c r="G13" t="n">
+        <v>3300.108490275161</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -750,6 +791,9 @@
       <c r="F14" t="n">
         <v>15294466275</v>
       </c>
+      <c r="G14" t="n">
+        <v>3287.153511261058</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -772,6 +816,9 @@
       <c r="F15" t="n">
         <v>13562957230</v>
       </c>
+      <c r="G15" t="n">
+        <v>3292.865499656731</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -794,6 +841,9 @@
       <c r="F16" t="n">
         <v>9619999078</v>
       </c>
+      <c r="G16" t="n">
+        <v>3302.281815172236</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -816,6 +866,9 @@
       <c r="F17" t="n">
         <v>9505934874</v>
       </c>
+      <c r="G17" t="n">
+        <v>3314.441830129177</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -838,6 +891,9 @@
       <c r="F18" t="n">
         <v>12344309617</v>
       </c>
+      <c r="G18" t="n">
+        <v>3288.907605507039</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -860,6 +916,9 @@
       <c r="F19" t="n">
         <v>13024154091</v>
       </c>
+      <c r="G19" t="n">
+        <v>3257.686990751373</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -882,6 +941,9 @@
       <c r="F20" t="n">
         <v>13187424144</v>
       </c>
+      <c r="G20" t="n">
+        <v>3217.221724997124</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -904,6 +966,9 @@
       <c r="F21" t="n">
         <v>10645922764</v>
       </c>
+      <c r="G21" t="n">
+        <v>3163.196323044718</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -926,6 +991,9 @@
       <c r="F22" t="n">
         <v>26796291874</v>
       </c>
+      <c r="G22" t="n">
+        <v>3011.880152439788</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -948,6 +1016,9 @@
       <c r="F23" t="n">
         <v>27369692036</v>
       </c>
+      <c r="G23" t="n">
+        <v>2860.205402415779</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -970,6 +1041,9 @@
       <c r="F24" t="n">
         <v>16481489511</v>
       </c>
+      <c r="G24" t="n">
+        <v>2778.913817436834</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -992,6 +1066,9 @@
       <c r="F25" t="n">
         <v>28220804648</v>
       </c>
+      <c r="G25" t="n">
+        <v>2694.273436808094</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1014,6 +1091,9 @@
       <c r="F26" t="n">
         <v>16179776932</v>
       </c>
+      <c r="G26" t="n">
+        <v>2634.688842254508</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1036,6 +1116,9 @@
       <c r="F27" t="n">
         <v>21229909340</v>
       </c>
+      <c r="G27" t="n">
+        <v>2593.024200050256</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1058,6 +1141,9 @@
       <c r="F28" t="n">
         <v>16126522783</v>
       </c>
+      <c r="G28" t="n">
+        <v>2550.518455213473</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1080,6 +1166,9 @@
       <c r="F29" t="n">
         <v>14666227351</v>
       </c>
+      <c r="G29" t="n">
+        <v>2549.661851664011</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1102,6 +1191,9 @@
       <c r="F30" t="n">
         <v>11172062661</v>
       </c>
+      <c r="G30" t="n">
+        <v>2561.517567947227</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1124,6 +1216,9 @@
       <c r="F31" t="n">
         <v>9501221177</v>
       </c>
+      <c r="G31" t="n">
+        <v>2572.004814144014</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1146,6 +1241,9 @@
       <c r="F32" t="n">
         <v>13778234614</v>
       </c>
+      <c r="G32" t="n">
+        <v>2601.073312756448</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1168,6 +1266,9 @@
       <c r="F33" t="n">
         <v>13194846235</v>
       </c>
+      <c r="G33" t="n">
+        <v>2648.834281442336</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1190,6 +1291,9 @@
       <c r="F34" t="n">
         <v>13876301217</v>
       </c>
+      <c r="G34" t="n">
+        <v>2657.339212058314</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1212,6 +1316,9 @@
       <c r="F35" t="n">
         <v>12755505065</v>
       </c>
+      <c r="G35" t="n">
+        <v>2662.795058457798</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1234,6 +1341,9 @@
       <c r="F36" t="n">
         <v>18987223729</v>
       </c>
+      <c r="G36" t="n">
+        <v>2742.993022358974</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1256,6 +1366,9 @@
       <c r="F37" t="n">
         <v>13102093957</v>
       </c>
+      <c r="G37" t="n">
+        <v>2810.906815109074</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1278,6 +1391,9 @@
       <c r="F38" t="n">
         <v>9466018022</v>
       </c>
+      <c r="G38" t="n">
+        <v>2872.549129886493</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1300,6 +1416,9 @@
       <c r="F39" t="n">
         <v>15197063785</v>
       </c>
+      <c r="G39" t="n">
+        <v>2940.02952319612</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1322,6 +1441,9 @@
       <c r="F40" t="n">
         <v>17136080906</v>
       </c>
+      <c r="G40" t="n">
+        <v>2985.674303041621</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1344,6 +1466,9 @@
       <c r="F41" t="n">
         <v>13951308490</v>
       </c>
+      <c r="G41" t="n">
+        <v>3049.119985093716</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1366,6 +1491,9 @@
       <c r="F42" t="n">
         <v>18629485080</v>
       </c>
+      <c r="G42" t="n">
+        <v>3056.21053325388</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1388,6 +1516,9 @@
       <c r="F43" t="n">
         <v>16043881065</v>
       </c>
+      <c r="G43" t="n">
+        <v>3024.003786170879</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1410,6 +1541,9 @@
       <c r="F44" t="n">
         <v>11254355757</v>
       </c>
+      <c r="G44" t="n">
+        <v>2997.343537870347</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1432,6 +1566,9 @@
       <c r="F45" t="n">
         <v>9054963563</v>
       </c>
+      <c r="G45" t="n">
+        <v>2968.873498129322</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1454,6 +1591,9 @@
       <c r="F46" t="n">
         <v>12164552172</v>
       </c>
+      <c r="G46" t="n">
+        <v>2960.024874573554</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1476,6 +1616,9 @@
       <c r="F47" t="n">
         <v>13921257873</v>
       </c>
+      <c r="G47" t="n">
+        <v>3014.987955246572</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1498,6 +1641,9 @@
       <c r="F48" t="n">
         <v>12352406833</v>
       </c>
+      <c r="G48" t="n">
+        <v>3043.198485966179</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1520,6 +1666,9 @@
       <c r="F49" t="n">
         <v>15860206214</v>
       </c>
+      <c r="G49" t="n">
+        <v>3002.769347873072</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1542,6 +1691,9 @@
       <c r="F50" t="n">
         <v>15748173433</v>
       </c>
+      <c r="G50" t="n">
+        <v>2948.508895670429</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1564,6 +1716,9 @@
       <c r="F51" t="n">
         <v>9774183169</v>
       </c>
+      <c r="G51" t="n">
+        <v>2902.306964721572</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1586,6 +1741,9 @@
       <c r="F52" t="n">
         <v>11641437834</v>
       </c>
+      <c r="G52" t="n">
+        <v>2833.892332916179</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1608,6 +1766,9 @@
       <c r="F53" t="n">
         <v>18646392740</v>
       </c>
+      <c r="G53" t="n">
+        <v>2768.873290214478</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1630,6 +1791,9 @@
       <c r="F54" t="n">
         <v>16360200507</v>
       </c>
+      <c r="G54" t="n">
+        <v>2736.479796762421</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1652,6 +1816,9 @@
       <c r="F55" t="n">
         <v>13382637240</v>
       </c>
+      <c r="G55" t="n">
+        <v>2699.949752356972</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1674,6 +1841,9 @@
       <c r="F56" t="n">
         <v>29312342666</v>
       </c>
+      <c r="G56" t="n">
+        <v>2674.479098935697</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1696,6 +1866,9 @@
       <c r="F57" t="n">
         <v>17208902048</v>
       </c>
+      <c r="G57" t="n">
+        <v>2696.993235334586</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1718,6 +1891,9 @@
       <c r="F58" t="n">
         <v>11724648351</v>
       </c>
+      <c r="G58" t="n">
+        <v>2718.022880602502</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1740,6 +1916,9 @@
       <c r="F59" t="n">
         <v>16150857254</v>
       </c>
+      <c r="G59" t="n">
+        <v>2693.967599905001</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1762,6 +1941,9 @@
       <c r="F60" t="n">
         <v>19266124733</v>
       </c>
+      <c r="G60" t="n">
+        <v>2750.275992897501</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1784,6 +1966,9 @@
       <c r="F61" t="n">
         <v>18757425786</v>
       </c>
+      <c r="G61" t="n">
+        <v>2805.828271528595</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1806,6 +1991,9 @@
       <c r="F62" t="n">
         <v>16636517503</v>
       </c>
+      <c r="G62" t="n">
+        <v>2841.900805697227</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1828,6 +2016,9 @@
       <c r="F63" t="n">
         <v>13091199728</v>
       </c>
+      <c r="G63" t="n">
+        <v>2840.042852808077</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1850,6 +2041,9 @@
       <c r="F64" t="n">
         <v>14496939024</v>
       </c>
+      <c r="G64" t="n">
+        <v>2784.321141070901</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1872,6 +2066,9 @@
       <c r="F65" t="n">
         <v>8072368396</v>
       </c>
+      <c r="G65" t="n">
+        <v>2754.448619475051</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1894,6 +2091,9 @@
       <c r="F66" t="n">
         <v>8872976607</v>
       </c>
+      <c r="G66" t="n">
+        <v>2704.595802985194</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1916,6 +2116,9 @@
       <c r="F67" t="n">
         <v>14594098731</v>
       </c>
+      <c r="G67" t="n">
+        <v>2652.88966229749</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1938,6 +2141,9 @@
       <c r="F68" t="n">
         <v>13922922903</v>
       </c>
+      <c r="G68" t="n">
+        <v>2633.854136371555</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1960,6 +2166,9 @@
       <c r="F69" t="n">
         <v>14173665398</v>
       </c>
+      <c r="G69" t="n">
+        <v>2657.836464095072</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1982,6 +2191,9 @@
       <c r="F70" t="n">
         <v>13292477213</v>
       </c>
+      <c r="G70" t="n">
+        <v>2645.389494067398</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2004,6 +2216,9 @@
       <c r="F71" t="n">
         <v>12382419582</v>
       </c>
+      <c r="G71" t="n">
+        <v>2623.932867620861</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2026,6 +2241,9 @@
       <c r="F72" t="n">
         <v>6532996574</v>
       </c>
+      <c r="G72" t="n">
+        <v>2611.638188313302</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2048,6 +2266,9 @@
       <c r="F73" t="n">
         <v>8632000379</v>
       </c>
+      <c r="G73" t="n">
+        <v>2588.464786254508</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2070,6 +2291,9 @@
       <c r="F74" t="n">
         <v>11244398839</v>
       </c>
+      <c r="G74" t="n">
+        <v>2589.02260092135</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2092,6 +2316,9 @@
       <c r="F75" t="n">
         <v>12861105614</v>
       </c>
+      <c r="G75" t="n">
+        <v>2596.804365241794</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2114,6 +2341,9 @@
       <c r="F76" t="n">
         <v>17915109769</v>
       </c>
+      <c r="G76" t="n">
+        <v>2640.61718994697</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2136,6 +2366,9 @@
       <c r="F77" t="n">
         <v>12685265194</v>
       </c>
+      <c r="G77" t="n">
+        <v>2684.176515507103</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2158,6 +2391,9 @@
       <c r="F78" t="n">
         <v>15830879093</v>
       </c>
+      <c r="G78" t="n">
+        <v>2749.468141024858</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2180,6 +2416,9 @@
       <c r="F79" t="n">
         <v>11576463120</v>
       </c>
+      <c r="G79" t="n">
+        <v>2798.665375788175</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2202,6 +2441,9 @@
       <c r="F80" t="n">
         <v>12684727326</v>
       </c>
+      <c r="G80" t="n">
+        <v>2814.113838970037</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2224,6 +2466,9 @@
       <c r="F81" t="n">
         <v>15206116098</v>
       </c>
+      <c r="G81" t="n">
+        <v>2835.079519852528</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2246,6 +2491,9 @@
       <c r="F82" t="n">
         <v>16830539230</v>
       </c>
+      <c r="G82" t="n">
+        <v>2869.592415768302</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2268,6 +2516,9 @@
       <c r="F83" t="n">
         <v>16008767658</v>
       </c>
+      <c r="G83" t="n">
+        <v>2909.961096494195</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2290,6 +2541,9 @@
       <c r="F84" t="n">
         <v>18070503166</v>
       </c>
+      <c r="G84" t="n">
+        <v>2959.486325300334</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2312,6 +2566,9 @@
       <c r="F85" t="n">
         <v>17030503831</v>
       </c>
+      <c r="G85" t="n">
+        <v>2996.282590654938</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2334,6 +2591,9 @@
       <c r="F86" t="n">
         <v>8876420740</v>
       </c>
+      <c r="G86" t="n">
+        <v>3033.006681760735</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2356,6 +2616,9 @@
       <c r="F87" t="n">
         <v>13431866834</v>
       </c>
+      <c r="G87" t="n">
+        <v>3097.649420500239</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2378,6 +2641,9 @@
       <c r="F88" t="n">
         <v>20620450770</v>
       </c>
+      <c r="G88" t="n">
+        <v>3157.395695746273</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2400,6 +2666,9 @@
       <c r="F89" t="n">
         <v>19533323636</v>
       </c>
+      <c r="G89" t="n">
+        <v>3218.543720051892</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2422,6 +2691,9 @@
       <c r="F90" t="n">
         <v>15302506131</v>
       </c>
+      <c r="G90" t="n">
+        <v>3260.197279785013</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2444,6 +2716,9 @@
       <c r="F91" t="n">
         <v>17685495686</v>
       </c>
+      <c r="G91" t="n">
+        <v>3265.558665405166</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2466,6 +2741,9 @@
       <c r="F92" t="n">
         <v>20982988937</v>
       </c>
+      <c r="G92" t="n">
+        <v>3311.557060577312</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2488,6 +2766,9 @@
       <c r="F93" t="n">
         <v>23571556215</v>
       </c>
+      <c r="G93" t="n">
+        <v>3344.932626975953</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2510,6 +2791,9 @@
       <c r="F94" t="n">
         <v>15333808649</v>
       </c>
+      <c r="G94" t="n">
+        <v>3389.407844255402</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2532,6 +2816,9 @@
       <c r="F95" t="n">
         <v>18209969743</v>
       </c>
+      <c r="G95" t="n">
+        <v>3422.366185925926</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2554,6 +2841,9 @@
       <c r="F96" t="n">
         <v>16681503199</v>
       </c>
+      <c r="G96" t="n">
+        <v>3419.722759561632</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2576,6 +2866,9 @@
       <c r="F97" t="n">
         <v>25632563639</v>
       </c>
+      <c r="G97" t="n">
+        <v>3357.715043304037</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2598,6 +2891,9 @@
       <c r="F98" t="n">
         <v>16745496605</v>
       </c>
+      <c r="G98" t="n">
+        <v>3326.604947028809</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2620,6 +2916,9 @@
       <c r="F99" t="n">
         <v>17557050669</v>
       </c>
+      <c r="G99" t="n">
+        <v>3292.97220392395</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2642,6 +2941,9 @@
       <c r="F100" t="n">
         <v>9908112156</v>
       </c>
+      <c r="G100" t="n">
+        <v>3285.208217884369</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2664,6 +2966,9 @@
       <c r="F101" t="n">
         <v>10427054790</v>
       </c>
+      <c r="G101" t="n">
+        <v>3266.872899253121</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2686,6 +2991,9 @@
       <c r="F102" t="n">
         <v>21891804831</v>
       </c>
+      <c r="G102" t="n">
+        <v>3195.417735963278</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2708,6 +3016,9 @@
       <c r="F103" t="n">
         <v>20235707410</v>
       </c>
+      <c r="G103" t="n">
+        <v>3154.157418183396</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2730,6 +3041,9 @@
       <c r="F104" t="n">
         <v>16088473629</v>
       </c>
+      <c r="G104" t="n">
+        <v>3145.204123207859</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2752,6 +3066,9 @@
       <c r="F105" t="n">
         <v>15821419931</v>
       </c>
+      <c r="G105" t="n">
+        <v>3113.880448362926</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2774,6 +3091,9 @@
       <c r="F106" t="n">
         <v>11256651536</v>
       </c>
+      <c r="G106" t="n">
+        <v>3095.639462248757</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2796,6 +3116,9 @@
       <c r="F107" t="n">
         <v>8766710365</v>
       </c>
+      <c r="G107" t="n">
+        <v>3087.307172370161</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2818,6 +3141,9 @@
       <c r="F108" t="n">
         <v>10463091281</v>
       </c>
+      <c r="G108" t="n">
+        <v>3063.831209355746</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2840,6 +3166,9 @@
       <c r="F109" t="n">
         <v>18629381299</v>
       </c>
+      <c r="G109" t="n">
+        <v>3062.275079380091</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2862,6 +3191,9 @@
       <c r="F110" t="n">
         <v>14156035096</v>
       </c>
+      <c r="G110" t="n">
+        <v>3072.732920863193</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2884,6 +3216,9 @@
       <c r="F111" t="n">
         <v>15547362265</v>
       </c>
+      <c r="G111" t="n">
+        <v>3073.986153049738</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2906,6 +3241,9 @@
       <c r="F112" t="n">
         <v>20783591093</v>
       </c>
+      <c r="G112" t="n">
+        <v>3052.35979300996</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2928,6 +3266,9 @@
       <c r="F113" t="n">
         <v>16782795477</v>
       </c>
+      <c r="G113" t="n">
+        <v>3030.478768097314</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2950,6 +3291,9 @@
       <c r="F114" t="n">
         <v>9116955609</v>
       </c>
+      <c r="G114" t="n">
+        <v>3007.387579490954</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2972,6 +3316,9 @@
       <c r="F115" t="n">
         <v>9696829579</v>
       </c>
+      <c r="G115" t="n">
+        <v>2986.223851122122</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2994,6 +3341,9 @@
       <c r="F116" t="n">
         <v>22332690614</v>
       </c>
+      <c r="G116" t="n">
+        <v>2992.016277013466</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3016,6 +3366,9 @@
       <c r="F117" t="n">
         <v>19052045399</v>
       </c>
+      <c r="G117" t="n">
+        <v>2946.086792721037</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3038,6 +3391,9 @@
       <c r="F118" t="n">
         <v>17419284041</v>
       </c>
+      <c r="G118" t="n">
+        <v>2931.797516415778</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3060,6 +3416,9 @@
       <c r="F119" t="n">
         <v>18443524633</v>
       </c>
+      <c r="G119" t="n">
+        <v>2933.083366804021</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3082,6 +3441,9 @@
       <c r="F120" t="n">
         <v>18771041399</v>
       </c>
+      <c r="G120" t="n">
+        <v>2903.712976763172</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3104,6 +3466,9 @@
       <c r="F121" t="n">
         <v>13520941867</v>
       </c>
+      <c r="G121" t="n">
+        <v>2860.33142446691</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3126,6 +3491,9 @@
       <c r="F122" t="n">
         <v>15332730152</v>
       </c>
+      <c r="G122" t="n">
+        <v>2852.187594229089</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3148,6 +3516,9 @@
       <c r="F123" t="n">
         <v>18609741545</v>
       </c>
+      <c r="G123" t="n">
+        <v>2853.493295769473</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3170,6 +3541,9 @@
       <c r="F124" t="n">
         <v>13026093219</v>
       </c>
+      <c r="G124" t="n">
+        <v>2835.989051416948</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3192,6 +3566,9 @@
       <c r="F125" t="n">
         <v>18186749944</v>
       </c>
+      <c r="G125" t="n">
+        <v>2862.152982410367</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3214,6 +3591,9 @@
       <c r="F126" t="n">
         <v>22642925048</v>
       </c>
+      <c r="G126" t="n">
+        <v>2833.918020499182</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3236,6 +3616,9 @@
       <c r="F127" t="n">
         <v>21027599270</v>
       </c>
+      <c r="G127" t="n">
+        <v>2799.183449456417</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3258,6 +3641,9 @@
       <c r="F128" t="n">
         <v>13369276367</v>
       </c>
+      <c r="G128" t="n">
+        <v>2758.410841486844</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3280,6 +3666,9 @@
       <c r="F129" t="n">
         <v>20802269935</v>
       </c>
+      <c r="G129" t="n">
+        <v>2698.173121349508</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3302,6 +3691,9 @@
       <c r="F130" t="n">
         <v>36333567678</v>
       </c>
+      <c r="G130" t="n">
+        <v>2584.9874459926</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3324,6 +3716,9 @@
       <c r="F131" t="n">
         <v>38202099639</v>
       </c>
+      <c r="G131" t="n">
+        <v>2524.618331076481</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3346,6 +3741,9 @@
       <c r="F132" t="n">
         <v>45743399154</v>
       </c>
+      <c r="G132" t="n">
+        <v>2411.490908951892</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3368,6 +3766,9 @@
       <c r="F133" t="n">
         <v>42463486402</v>
       </c>
+      <c r="G133" t="n">
+        <v>2299.043566235404</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3390,6 +3791,9 @@
       <c r="F134" t="n">
         <v>24816096567</v>
       </c>
+      <c r="G134" t="n">
+        <v>2227.887227899209</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3412,6 +3816,9 @@
       <c r="F135" t="n">
         <v>15457044616</v>
       </c>
+      <c r="G135" t="n">
+        <v>2184.98390236972</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3434,6 +3841,9 @@
       <c r="F136" t="n">
         <v>14846088335</v>
       </c>
+      <c r="G136" t="n">
+        <v>2175.164623554633</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3456,6 +3866,9 @@
       <c r="F137" t="n">
         <v>21459552191</v>
       </c>
+      <c r="G137" t="n">
+        <v>2137.054955703084</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3478,6 +3891,9 @@
       <c r="F138" t="n">
         <v>18509929297</v>
       </c>
+      <c r="G138" t="n">
+        <v>2125.393511699188</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3500,6 +3916,9 @@
       <c r="F139" t="n">
         <v>17740965589</v>
       </c>
+      <c r="G139" t="n">
+        <v>2073.209165756813</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3522,6 +3941,9 @@
       <c r="F140" t="n">
         <v>18734247914</v>
       </c>
+      <c r="G140" t="n">
+        <v>2059.490919727766</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3544,6 +3966,9 @@
       <c r="F141" t="n">
         <v>15892482289</v>
       </c>
+      <c r="G141" t="n">
+        <v>2034.947108252856</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3566,6 +3991,9 @@
       <c r="F142" t="n">
         <v>8546822406</v>
       </c>
+      <c r="G142" t="n">
+        <v>2019.83990882636</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3588,6 +4016,9 @@
       <c r="F143" t="n">
         <v>10941123403</v>
       </c>
+      <c r="G143" t="n">
+        <v>2025.672473123677</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3610,6 +4041,9 @@
       <c r="F144" t="n">
         <v>16434529708</v>
       </c>
+      <c r="G144" t="n">
+        <v>2012.299826034164</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3632,6 +4066,9 @@
       <c r="F145" t="n">
         <v>13057109007</v>
       </c>
+      <c r="G145" t="n">
+        <v>2003.970566547107</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3654,6 +4091,9 @@
       <c r="F146" t="n">
         <v>13364545730</v>
       </c>
+      <c r="G146" t="n">
+        <v>1989.184895125174</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3676,6 +4116,9 @@
       <c r="F147" t="n">
         <v>23458681818</v>
       </c>
+      <c r="G147" t="n">
+        <v>1942.867003863412</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3698,6 +4141,9 @@
       <c r="F148" t="n">
         <v>25470760032</v>
       </c>
+      <c r="G148" t="n">
+        <v>1888.380965788184</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3720,6 +4166,9 @@
       <c r="F149" t="n">
         <v>23214777872</v>
       </c>
+      <c r="G149" t="n">
+        <v>1855.771167456372</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3742,6 +4191,9 @@
       <c r="F150" t="n">
         <v>10642556101</v>
       </c>
+      <c r="G150" t="n">
+        <v>1844.836127057123</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3764,6 +4216,9 @@
       <c r="F151" t="n">
         <v>19580808705</v>
       </c>
+      <c r="G151" t="n">
+        <v>1882.737416337764</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3786,6 +4241,9 @@
       <c r="F152" t="n">
         <v>18363115560</v>
       </c>
+      <c r="G152" t="n">
+        <v>1897.635062985745</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3808,6 +4266,9 @@
       <c r="F153" t="n">
         <v>21037797760</v>
       </c>
+      <c r="G153" t="n">
+        <v>1879.118631223684</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3830,6 +4291,9 @@
       <c r="F154" t="n">
         <v>17065041354</v>
       </c>
+      <c r="G154" t="n">
+        <v>1867.876601591591</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3852,6 +4316,9 @@
       <c r="F155" t="n">
         <v>14878001811</v>
       </c>
+      <c r="G155" t="n">
+        <v>1844.677104514006</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3874,6 +4341,9 @@
       <c r="F156" t="n">
         <v>8677951273</v>
       </c>
+      <c r="G156" t="n">
+        <v>1833.910202653082</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3896,6 +4366,9 @@
       <c r="F157" t="n">
         <v>8850385937</v>
       </c>
+      <c r="G157" t="n">
+        <v>1826.733891003484</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3918,6 +4391,9 @@
       <c r="F158" t="n">
         <v>16518471852</v>
       </c>
+      <c r="G158" t="n">
+        <v>1834.872836465503</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3940,6 +4416,9 @@
       <c r="F159" t="n">
         <v>24020076750</v>
       </c>
+      <c r="G159" t="n">
+        <v>1829.666712310065</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3962,6 +4441,9 @@
       <c r="F160" t="n">
         <v>18041476023</v>
       </c>
+      <c r="G160" t="n">
+        <v>1820.643100638799</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3984,6 +4466,9 @@
       <c r="F161" t="n">
         <v>12013083393</v>
       </c>
+      <c r="G161" t="n">
+        <v>1812.938837930271</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4006,6 +4491,9 @@
       <c r="F162" t="n">
         <v>18504740451</v>
       </c>
+      <c r="G162" t="n">
+        <v>1775.964687529734</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4028,6 +4516,9 @@
       <c r="F163" t="n">
         <v>21127089064</v>
       </c>
+      <c r="G163" t="n">
+        <v>1714.38937868441</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4050,6 +4541,9 @@
       <c r="F164" t="n">
         <v>23465074882</v>
       </c>
+      <c r="G164" t="n">
+        <v>1647.096172196901</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4072,6 +4566,9 @@
       <c r="F165" t="n">
         <v>45162788786</v>
       </c>
+      <c r="G165" t="n">
+        <v>1536.467820065645</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4094,6 +4591,9 @@
       <c r="F166" t="n">
         <v>33327826525</v>
       </c>
+      <c r="G166" t="n">
+        <v>1455.266575498452</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4116,6 +4616,9 @@
       <c r="F167" t="n">
         <v>37539999450</v>
       </c>
+      <c r="G167" t="n">
+        <v>1399.751536848449</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4138,6 +4641,9 @@
       <c r="F168" t="n">
         <v>18907671369</v>
       </c>
+      <c r="G168" t="n">
+        <v>1316.746330858993</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4160,6 +4666,9 @@
       <c r="F169" t="n">
         <v>14591486540</v>
       </c>
+      <c r="G169" t="n">
+        <v>1259.189569921588</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4182,6 +4691,9 @@
       <c r="F170" t="n">
         <v>21655406608</v>
       </c>
+      <c r="G170" t="n">
+        <v>1192.80137238748</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4204,6 +4716,9 @@
       <c r="F171" t="n">
         <v>21795481981</v>
       </c>
+      <c r="G171" t="n">
+        <v>1176.515152825767</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4226,6 +4741,9 @@
       <c r="F172" t="n">
         <v>19739691429</v>
       </c>
+      <c r="G172" t="n">
+        <v>1164.296978632997</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4248,6 +4766,9 @@
       <c r="F173" t="n">
         <v>15632089439</v>
       </c>
+      <c r="G173" t="n">
+        <v>1154.428880214982</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4270,6 +4791,9 @@
       <c r="F174" t="n">
         <v>15010593493</v>
       </c>
+      <c r="G174" t="n">
+        <v>1128.677128911237</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4292,6 +4816,9 @@
       <c r="F175" t="n">
         <v>14657862919</v>
       </c>
+      <c r="G175" t="n">
+        <v>1132.354526370927</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4314,6 +4841,9 @@
       <c r="F176" t="n">
         <v>16981552654</v>
       </c>
+      <c r="G176" t="n">
+        <v>1155.977076418821</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4336,6 +4866,9 @@
       <c r="F177" t="n">
         <v>12481946184</v>
       </c>
+      <c r="G177" t="n">
+        <v>1177.844532167631</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4358,6 +4891,9 @@
       <c r="F178" t="n">
         <v>12096607824</v>
       </c>
+      <c r="G178" t="n">
+        <v>1183.341315385489</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4380,6 +4916,9 @@
       <c r="F179" t="n">
         <v>12492225250</v>
       </c>
+      <c r="G179" t="n">
+        <v>1185.926152554741</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4402,6 +4941,9 @@
       <c r="F180" t="n">
         <v>14023205651</v>
       </c>
+      <c r="G180" t="n">
+        <v>1175.589420324259</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4424,6 +4966,9 @@
       <c r="F181" t="n">
         <v>15386286815</v>
       </c>
+      <c r="G181" t="n">
+        <v>1156.428027157257</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4446,6 +4991,9 @@
       <c r="F182" t="n">
         <v>16350755497</v>
       </c>
+      <c r="G182" t="n">
+        <v>1134.145727399193</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4468,6 +5016,9 @@
       <c r="F183" t="n">
         <v>17499453625</v>
       </c>
+      <c r="G183" t="n">
+        <v>1115.551129045488</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4490,6 +5041,9 @@
       <c r="F184" t="n">
         <v>9935603640</v>
       </c>
+      <c r="G184" t="n">
+        <v>1103.291551129819</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4512,6 +5066,9 @@
       <c r="F185" t="n">
         <v>8557248150</v>
       </c>
+      <c r="G185" t="n">
+        <v>1095.910405290724</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4534,6 +5091,9 @@
       <c r="F186" t="n">
         <v>13670889311</v>
       </c>
+      <c r="G186" t="n">
+        <v>1109.697574475855</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4556,6 +5116,9 @@
       <c r="F187" t="n">
         <v>16195518291</v>
       </c>
+      <c r="G187" t="n">
+        <v>1115.908434763141</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4578,6 +5141,9 @@
       <c r="F188" t="n">
         <v>15373536703</v>
       </c>
+      <c r="G188" t="n">
+        <v>1133.674825828215</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4600,6 +5166,9 @@
       <c r="F189" t="n">
         <v>14230795894</v>
       </c>
+      <c r="G189" t="n">
+        <v>1159.654465318427</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4622,6 +5191,9 @@
       <c r="F190" t="n">
         <v>16315929082</v>
       </c>
+      <c r="G190" t="n">
+        <v>1175.367405385305</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4644,6 +5216,9 @@
       <c r="F191" t="n">
         <v>8821353104</v>
       </c>
+      <c r="G191" t="n">
+        <v>1185.770121910072</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4666,6 +5241,9 @@
       <c r="F192" t="n">
         <v>10984558039</v>
       </c>
+      <c r="G192" t="n">
+        <v>1181.427994264585</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4688,6 +5266,9 @@
       <c r="F193" t="n">
         <v>12064180410</v>
       </c>
+      <c r="G193" t="n">
+        <v>1160.380138764845</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4710,6 +5291,9 @@
       <c r="F194" t="n">
         <v>12583282453</v>
       </c>
+      <c r="G194" t="n">
+        <v>1129.83301667129</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4732,6 +5316,9 @@
       <c r="F195" t="n">
         <v>18302588147</v>
       </c>
+      <c r="G195" t="n">
+        <v>1125.771552054249</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4754,6 +5341,9 @@
       <c r="F196" t="n">
         <v>16688640823</v>
       </c>
+      <c r="G196" t="n">
+        <v>1142.210225319984</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4776,6 +5366,9 @@
       <c r="F197" t="n">
         <v>17411448225</v>
       </c>
+      <c r="G197" t="n">
+        <v>1164.939956587644</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4798,6 +5391,9 @@
       <c r="F198" t="n">
         <v>18364013796</v>
       </c>
+      <c r="G198" t="n">
+        <v>1211.861583651671</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4820,6 +5416,9 @@
       <c r="F199" t="n">
         <v>16079711737</v>
       </c>
+      <c r="G199" t="n">
+        <v>1243.555123285628</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4842,6 +5441,9 @@
       <c r="F200" t="n">
         <v>27440420623</v>
       </c>
+      <c r="G200" t="n">
+        <v>1327.345816341174</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4864,6 +5466,9 @@
       <c r="F201" t="n">
         <v>27753529276</v>
       </c>
+      <c r="G201" t="n">
+        <v>1381.253167187521</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4886,6 +5491,9 @@
       <c r="F202" t="n">
         <v>22942708340</v>
       </c>
+      <c r="G202" t="n">
+        <v>1415.990046289078</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4908,6 +5516,9 @@
       <c r="F203" t="n">
         <v>20009556587</v>
       </c>
+      <c r="G203" t="n">
+        <v>1456.179912646496</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4930,6 +5541,9 @@
       <c r="F204" t="n">
         <v>18926100582</v>
       </c>
+      <c r="G204" t="n">
+        <v>1476.486222326669</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4952,6 +5566,9 @@
       <c r="F205" t="n">
         <v>14998811383</v>
       </c>
+      <c r="G205" t="n">
+        <v>1494.689038082892</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4974,6 +5591,9 @@
       <c r="F206" t="n">
         <v>17217849557</v>
       </c>
+      <c r="G206" t="n">
+        <v>1520.885949704747</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4996,6 +5616,9 @@
       <c r="F207" t="n">
         <v>20585056021</v>
       </c>
+      <c r="G207" t="n">
+        <v>1502.010317991451</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5018,6 +5641,9 @@
       <c r="F208" t="n">
         <v>18238563509</v>
       </c>
+      <c r="G208" t="n">
+        <v>1486.959429167417</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5040,6 +5666,9 @@
       <c r="F209" t="n">
         <v>23007524016</v>
       </c>
+      <c r="G209" t="n">
+        <v>1524.277738379469</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5062,6 +5691,9 @@
       <c r="F210" t="n">
         <v>27231399966</v>
       </c>
+      <c r="G210" t="n">
+        <v>1574.575338696711</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5084,6 +5716,9 @@
       <c r="F211" t="n">
         <v>23249531113</v>
       </c>
+      <c r="G211" t="n">
+        <v>1612.783249628002</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5106,6 +5741,9 @@
       <c r="F212" t="n">
         <v>15576977870</v>
       </c>
+      <c r="G212" t="n">
+        <v>1633.57980782647</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5128,6 +5766,9 @@
       <c r="F213" t="n">
         <v>14200735370</v>
       </c>
+      <c r="G213" t="n">
+        <v>1645.564189365946</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5150,6 +5791,9 @@
       <c r="F214" t="n">
         <v>16191371176</v>
       </c>
+      <c r="G214" t="n">
+        <v>1642.972092219772</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5172,6 +5816,9 @@
       <c r="F215" t="n">
         <v>20426082309</v>
       </c>
+      <c r="G215" t="n">
+        <v>1640.465427807407</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5194,6 +5841,9 @@
       <c r="F216" t="n">
         <v>16786218830</v>
       </c>
+      <c r="G216" t="n">
+        <v>1635.067698785243</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5216,6 +5866,9 @@
       <c r="F217" t="n">
         <v>14467440626</v>
       </c>
+      <c r="G217" t="n">
+        <v>1628.352226725651</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5238,6 +5891,9 @@
       <c r="F218" t="n">
         <v>18546491876</v>
       </c>
+      <c r="G218" t="n">
+        <v>1654.327829712207</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5260,6 +5916,9 @@
       <c r="F219" t="n">
         <v>11757911705</v>
       </c>
+      <c r="G219" t="n">
+        <v>1663.660392547827</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5282,6 +5941,9 @@
       <c r="F220" t="n">
         <v>10252090340</v>
       </c>
+      <c r="G220" t="n">
+        <v>1672.583001930402</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5304,6 +5966,9 @@
       <c r="F221" t="n">
         <v>16841424404</v>
       </c>
+      <c r="G221" t="n">
+        <v>1698.316279768114</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5326,6 +5991,9 @@
       <c r="F222" t="n">
         <v>16368619692</v>
       </c>
+      <c r="G222" t="n">
+        <v>1699.493465929601</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5348,6 +6016,9 @@
       <c r="F223" t="n">
         <v>23512477984</v>
       </c>
+      <c r="G223" t="n">
+        <v>1737.555768392513</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5370,6 +6041,9 @@
       <c r="F224" t="n">
         <v>23826986482</v>
       </c>
+      <c r="G224" t="n">
+        <v>1773.472856567822</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5392,6 +6066,9 @@
       <c r="F225" t="n">
         <v>17168141904</v>
       </c>
+      <c r="G225" t="n">
+        <v>1819.416257416101</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5414,6 +6091,9 @@
       <c r="F226" t="n">
         <v>16038975216</v>
       </c>
+      <c r="G226" t="n">
+        <v>1859.896330024967</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5436,6 +6116,9 @@
       <c r="F227" t="n">
         <v>14062754456</v>
       </c>
+      <c r="G227" t="n">
+        <v>1879.122748007006</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5458,6 +6141,9 @@
       <c r="F228" t="n">
         <v>20349931313</v>
       </c>
+      <c r="G228" t="n">
+        <v>1885.39909835877</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5480,6 +6166,9 @@
       <c r="F229" t="n">
         <v>15637578930</v>
       </c>
+      <c r="G229" t="n">
+        <v>1883.584174843296</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5502,6 +6191,9 @@
       <c r="F230" t="n">
         <v>20308508124</v>
       </c>
+      <c r="G230" t="n">
+        <v>1870.938039579738</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5524,6 +6216,9 @@
       <c r="F231" t="n">
         <v>14999352229</v>
       </c>
+      <c r="G231" t="n">
+        <v>1864.955482809803</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5546,6 +6241,9 @@
       <c r="F232" t="n">
         <v>25906358731</v>
       </c>
+      <c r="G232" t="n">
+        <v>1801.963438279228</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5568,6 +6266,9 @@
       <c r="F233" t="n">
         <v>18334580263</v>
       </c>
+      <c r="G233" t="n">
+        <v>1745.723524754343</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5590,6 +6291,9 @@
       <c r="F234" t="n">
         <v>15849221752</v>
       </c>
+      <c r="G234" t="n">
+        <v>1714.122385997397</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5612,6 +6316,9 @@
       <c r="F235" t="n">
         <v>18557078599</v>
       </c>
+      <c r="G235" t="n">
+        <v>1691.218254341798</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5634,6 +6341,9 @@
       <c r="F236" t="n">
         <v>18322041914</v>
       </c>
+      <c r="G236" t="n">
+        <v>1684.106165121583</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5656,6 +6366,9 @@
       <c r="F237" t="n">
         <v>16780932907</v>
       </c>
+      <c r="G237" t="n">
+        <v>1677.344424866578</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5678,6 +6391,9 @@
       <c r="F238" t="n">
         <v>14818795695</v>
       </c>
+      <c r="G238" t="n">
+        <v>1682.122576462433</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5700,6 +6416,9 @@
       <c r="F239" t="n">
         <v>26713710143</v>
       </c>
+      <c r="G239" t="n">
+        <v>1638.53764157534</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5722,6 +6441,9 @@
       <c r="F240" t="n">
         <v>18120831899</v>
       </c>
+      <c r="G240" t="n">
+        <v>1601.751986064318</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5744,6 +6466,9 @@
       <c r="F241" t="n">
         <v>12823572918</v>
       </c>
+      <c r="G241" t="n">
+        <v>1558.950830368551</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5766,6 +6491,9 @@
       <c r="F242" t="n">
         <v>17965837488</v>
       </c>
+      <c r="G242" t="n">
+        <v>1557.472461155319</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5788,6 +6516,9 @@
       <c r="F243" t="n">
         <v>21835784470</v>
       </c>
+      <c r="G243" t="n">
+        <v>1549.064062663365</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5810,6 +6541,9 @@
       <c r="F244" t="n">
         <v>20591680941</v>
       </c>
+      <c r="G244" t="n">
+        <v>1550.219281128383</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5832,6 +6566,9 @@
       <c r="F245" t="n">
         <v>16434276817</v>
       </c>
+      <c r="G245" t="n">
+        <v>1559.208650299412</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5854,6 +6591,9 @@
       <c r="F246" t="n">
         <v>17708478709</v>
       </c>
+      <c r="G246" t="n">
+        <v>1563.711602470653</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5876,6 +6616,9 @@
       <c r="F247" t="n">
         <v>9516825994</v>
       </c>
+      <c r="G247" t="n">
+        <v>1562.001872019005</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5898,6 +6641,9 @@
       <c r="F248" t="n">
         <v>8884144998</v>
       </c>
+      <c r="G248" t="n">
+        <v>1565.911804404879</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5920,6 +6666,9 @@
       <c r="F249" t="n">
         <v>13060541168</v>
       </c>
+      <c r="G249" t="n">
+        <v>1578.729660188425</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5942,6 +6691,9 @@
       <c r="F250" t="n">
         <v>22946059125</v>
       </c>
+      <c r="G250" t="n">
+        <v>1574.484378930381</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5964,6 +6716,9 @@
       <c r="F251" t="n">
         <v>19560363854</v>
       </c>
+      <c r="G251" t="n">
+        <v>1588.339877215364</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5986,6 +6741,9 @@
       <c r="F252" t="n">
         <v>17621046717</v>
       </c>
+      <c r="G252" t="n">
+        <v>1600.091821974023</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -6008,6 +6766,9 @@
       <c r="F253" t="n">
         <v>20242323690</v>
       </c>
+      <c r="G253" t="n">
+        <v>1629.840228785205</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -6030,6 +6791,9 @@
       <c r="F254" t="n">
         <v>13130928217</v>
       </c>
+      <c r="G254" t="n">
+        <v>1666.431105426794</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6052,6 +6816,9 @@
       <c r="F255" t="n">
         <v>12464301922</v>
       </c>
+      <c r="G255" t="n">
+        <v>1690.273341277127</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6074,6 +6841,9 @@
       <c r="F256" t="n">
         <v>17688391310</v>
       </c>
+      <c r="G256" t="n">
+        <v>1696.146320655111</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6096,6 +6866,9 @@
       <c r="F257" t="n">
         <v>23066821734</v>
       </c>
+      <c r="G257" t="n">
+        <v>1667.30673145813</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6118,6 +6891,9 @@
       <c r="F258" t="n">
         <v>17897150206</v>
       </c>
+      <c r="G258" t="n">
+        <v>1659.168799814301</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6140,6 +6916,9 @@
       <c r="F259" t="n">
         <v>26946275878</v>
       </c>
+      <c r="G259" t="n">
+        <v>1612.299970222054</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6162,6 +6941,9 @@
       <c r="F260" t="n">
         <v>16764804299</v>
       </c>
+      <c r="G260" t="n">
+        <v>1567.336916143103</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6184,6 +6966,9 @@
       <c r="F261" t="n">
         <v>10798098671</v>
       </c>
+      <c r="G261" t="n">
+        <v>1542.938111912015</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6206,6 +6991,9 @@
       <c r="F262" t="n">
         <v>15762284723</v>
       </c>
+      <c r="G262" t="n">
+        <v>1491.035859324636</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6228,6 +7016,9 @@
       <c r="F263" t="n">
         <v>18712714223</v>
       </c>
+      <c r="G263" t="n">
+        <v>1462.662239952461</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6250,6 +7041,9 @@
       <c r="F264" t="n">
         <v>14722317220</v>
       </c>
+      <c r="G264" t="n">
+        <v>1428.093725862783</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6272,6 +7066,9 @@
       <c r="F265" t="n">
         <v>20643507800</v>
       </c>
+      <c r="G265" t="n">
+        <v>1384.222241418572</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6294,6 +7091,9 @@
       <c r="F266" t="n">
         <v>18461527259</v>
       </c>
+      <c r="G266" t="n">
+        <v>1370.086725009241</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6316,6 +7116,9 @@
       <c r="F267" t="n">
         <v>18771106339</v>
       </c>
+      <c r="G267" t="n">
+        <v>1359.629924128025</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6338,6 +7141,9 @@
       <c r="F268" t="n">
         <v>12098209717</v>
       </c>
+      <c r="G268" t="n">
+        <v>1349.220764629222</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6360,6 +7166,9 @@
       <c r="F269" t="n">
         <v>11802651633</v>
       </c>
+      <c r="G269" t="n">
+        <v>1335.469772690666</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6382,6 +7191,9 @@
       <c r="F270" t="n">
         <v>16034549271</v>
       </c>
+      <c r="G270" t="n">
+        <v>1335.432377125422</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6404,6 +7216,9 @@
       <c r="F271" t="n">
         <v>17870598937</v>
       </c>
+      <c r="G271" t="n">
+        <v>1334.106204230785</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6426,6 +7241,9 @@
       <c r="F272" t="n">
         <v>18994979566</v>
       </c>
+      <c r="G272" t="n">
+        <v>1334.932375341057</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6448,6 +7266,9 @@
       <c r="F273" t="n">
         <v>13796915736</v>
       </c>
+      <c r="G273" t="n">
+        <v>1335.112367443293</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -6470,6 +7291,9 @@
       <c r="F274" t="n">
         <v>14250100093</v>
       </c>
+      <c r="G274" t="n">
+        <v>1333.328935006298</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -6492,6 +7316,9 @@
       <c r="F275" t="n">
         <v>6227961237</v>
       </c>
+      <c r="G275" t="n">
+        <v>1327.907803549645</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -6514,6 +7341,9 @@
       <c r="F276" t="n">
         <v>7578351650</v>
       </c>
+      <c r="G276" t="n">
+        <v>1314.954229127078</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -6536,6 +7366,9 @@
       <c r="F277" t="n">
         <v>10153070907</v>
       </c>
+      <c r="G277" t="n">
+        <v>1317.075474091402</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -6558,6 +7391,9 @@
       <c r="F278" t="n">
         <v>10139774963</v>
       </c>
+      <c r="G278" t="n">
+        <v>1328.338252297067</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6580,6 +7416,9 @@
       <c r="F279" t="n">
         <v>9774451820</v>
       </c>
+      <c r="G279" t="n">
+        <v>1334.462978773582</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6602,6 +7441,9 @@
       <c r="F280" t="n">
         <v>12033514861</v>
       </c>
+      <c r="G280" t="n">
+        <v>1338.774602244249</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -6624,6 +7466,9 @@
       <c r="F281" t="n">
         <v>10061619355</v>
       </c>
+      <c r="G281" t="n">
+        <v>1337.210193626546</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -6646,6 +7491,9 @@
       <c r="F282" t="n">
         <v>5804676208</v>
       </c>
+      <c r="G282" t="n">
+        <v>1331.782767290222</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -6668,6 +7516,9 @@
       <c r="F283" t="n">
         <v>5486230123</v>
       </c>
+      <c r="G283" t="n">
+        <v>1329.488137479385</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -6690,6 +7541,9 @@
       <c r="F284" t="n">
         <v>8794491050</v>
       </c>
+      <c r="G284" t="n">
+        <v>1319.950514730633</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -6712,6 +7566,9 @@
       <c r="F285" t="n">
         <v>9274845260</v>
       </c>
+      <c r="G285" t="n">
+        <v>1309.856806946412</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -6734,6 +7591,9 @@
       <c r="F286" t="n">
         <v>8355638578</v>
       </c>
+      <c r="G286" t="n">
+        <v>1306.119198227387</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -6756,6 +7616,9 @@
       <c r="F287" t="n">
         <v>17499038202</v>
       </c>
+      <c r="G287" t="n">
+        <v>1301.620374012337</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -6778,6 +7641,9 @@
       <c r="F288" t="n">
         <v>13113767755</v>
       </c>
+      <c r="G288" t="n">
+        <v>1300.570810294409</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -6800,6 +7666,9 @@
       <c r="F289" t="n">
         <v>6798512624</v>
       </c>
+      <c r="G289" t="n">
+        <v>1294.146033746198</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -6822,6 +7691,9 @@
       <c r="F290" t="n">
         <v>7491625206</v>
       </c>
+      <c r="G290" t="n">
+        <v>1297.183683024492</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -6844,6 +7716,9 @@
       <c r="F291" t="n">
         <v>9401189650</v>
       </c>
+      <c r="G291" t="n">
+        <v>1305.816168030088</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -6866,6 +7741,9 @@
       <c r="F292" t="n">
         <v>10416747806</v>
       </c>
+      <c r="G292" t="n">
+        <v>1306.97388139366</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6888,6 +7766,9 @@
       <c r="F293" t="n">
         <v>8350692785</v>
       </c>
+      <c r="G293" t="n">
+        <v>1301.666476719073</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -6910,6 +7791,9 @@
       <c r="F294" t="n">
         <v>9009111996</v>
       </c>
+      <c r="G294" t="n">
+        <v>1297.050089472898</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6932,6 +7816,9 @@
       <c r="F295" t="n">
         <v>10412565245</v>
       </c>
+      <c r="G295" t="n">
+        <v>1297.774169887877</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6954,6 +7841,9 @@
       <c r="F296" t="n">
         <v>7175324564</v>
       </c>
+      <c r="G296" t="n">
+        <v>1301.905425999892</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6976,6 +7866,9 @@
       <c r="F297" t="n">
         <v>9909510925</v>
       </c>
+      <c r="G297" t="n">
+        <v>1317.290824871013</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6998,6 +7891,9 @@
       <c r="F298" t="n">
         <v>13092820173</v>
       </c>
+      <c r="G298" t="n">
+        <v>1324.217752442322</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -7020,6 +7916,9 @@
       <c r="F299" t="n">
         <v>25367291294</v>
       </c>
+      <c r="G299" t="n">
+        <v>1358.579665650101</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7042,6 +7941,9 @@
       <c r="F300" t="n">
         <v>32705548427</v>
       </c>
+      <c r="G300" t="n">
+        <v>1410.576411835232</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -7064,6 +7966,9 @@
       <c r="F301" t="n">
         <v>22813499245</v>
       </c>
+      <c r="G301" t="n">
+        <v>1436.526028358846</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -7086,6 +7991,9 @@
       <c r="F302" t="n">
         <v>19974623205</v>
       </c>
+      <c r="G302" t="n">
+        <v>1466.263997587494</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -7108,6 +8016,9 @@
       <c r="F303" t="n">
         <v>21618154775</v>
       </c>
+      <c r="G303" t="n">
+        <v>1504.622619772652</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -7130,6 +8041,9 @@
       <c r="F304" t="n">
         <v>13930073427</v>
       </c>
+      <c r="G304" t="n">
+        <v>1526.162796128317</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -7152,6 +8066,9 @@
       <c r="F305" t="n">
         <v>19306919714</v>
       </c>
+      <c r="G305" t="n">
+        <v>1537.800716481003</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -7174,6 +8091,9 @@
       <c r="F306" t="n">
         <v>14507311208</v>
       </c>
+      <c r="G306" t="n">
+        <v>1548.27668482169</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -7196,6 +8116,9 @@
       <c r="F307" t="n">
         <v>23254218281</v>
       </c>
+      <c r="G307" t="n">
+        <v>1541.135461614314</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -7218,6 +8141,9 @@
       <c r="F308" t="n">
         <v>14248351007</v>
       </c>
+      <c r="G308" t="n">
+        <v>1538.737033222455</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -7240,6 +8166,9 @@
       <c r="F309" t="n">
         <v>20806964347</v>
       </c>
+      <c r="G309" t="n">
+        <v>1565.326120864107</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -7262,6 +8191,9 @@
       <c r="F310" t="n">
         <v>11006973190</v>
       </c>
+      <c r="G310" t="n">
+        <v>1580.986595042611</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -7284,6 +8216,9 @@
       <c r="F311" t="n">
         <v>11632744705</v>
       </c>
+      <c r="G311" t="n">
+        <v>1578.798631584693</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -7306,6 +8241,9 @@
       <c r="F312" t="n">
         <v>15279963349</v>
       </c>
+      <c r="G312" t="n">
+        <v>1576.246800836957</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7328,6 +8266,9 @@
       <c r="F313" t="n">
         <v>42048003440</v>
       </c>
+      <c r="G313" t="n">
+        <v>1515.393993449984</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -7350,6 +8291,9 @@
       <c r="F314" t="n">
         <v>38864492427</v>
       </c>
+      <c r="G314" t="n">
+        <v>1411.58794503866</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -7372,6 +8316,9 @@
       <c r="F315" t="n">
         <v>28581002122</v>
       </c>
+      <c r="G315" t="n">
+        <v>1383.557108681338</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -7394,6 +8341,9 @@
       <c r="F316" t="n">
         <v>20920539099</v>
       </c>
+      <c r="G316" t="n">
+        <v>1359.473098844988</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -7416,6 +8366,9 @@
       <c r="F317" t="n">
         <v>10964962767</v>
       </c>
+      <c r="G317" t="n">
+        <v>1333.42190177046</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -7438,6 +8391,9 @@
       <c r="F318" t="n">
         <v>10717455214</v>
       </c>
+      <c r="G318" t="n">
+        <v>1305.521229794642</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -7460,6 +8416,9 @@
       <c r="F319" t="n">
         <v>15028035663</v>
       </c>
+      <c r="G319" t="n">
+        <v>1289.5419843577</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -7482,6 +8441,9 @@
       <c r="F320" t="n">
         <v>11798011594</v>
       </c>
+      <c r="G320" t="n">
+        <v>1280.090539781947</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -7504,6 +8466,9 @@
       <c r="F321" t="n">
         <v>11939561598</v>
       </c>
+      <c r="G321" t="n">
+        <v>1263.968539602085</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -7526,6 +8491,9 @@
       <c r="F322" t="n">
         <v>9723646871</v>
       </c>
+      <c r="G322" t="n">
+        <v>1248.178553139064</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -7548,6 +8516,9 @@
       <c r="F323" t="n">
         <v>7979913378</v>
       </c>
+      <c r="G323" t="n">
+        <v>1239.208988096485</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -7570,6 +8541,9 @@
       <c r="F324" t="n">
         <v>5978745776</v>
       </c>
+      <c r="G324" t="n">
+        <v>1234.013430525489</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -7592,6 +8566,9 @@
       <c r="F325" t="n">
         <v>9651002684</v>
       </c>
+      <c r="G325" t="n">
+        <v>1211.126741595289</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -7614,6 +8591,9 @@
       <c r="F326" t="n">
         <v>14080099208</v>
       </c>
+      <c r="G326" t="n">
+        <v>1185.433313032404</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -7636,6 +8616,9 @@
       <c r="F327" t="n">
         <v>12040670755</v>
       </c>
+      <c r="G327" t="n">
+        <v>1172.868350252819</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -7658,6 +8641,9 @@
       <c r="F328" t="n">
         <v>11242676044</v>
       </c>
+      <c r="G328" t="n">
+        <v>1175.451158929849</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -7680,6 +8666,9 @@
       <c r="F329" t="n">
         <v>9706372376</v>
       </c>
+      <c r="G329" t="n">
+        <v>1182.584157771605</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -7702,6 +8691,9 @@
       <c r="F330" t="n">
         <v>5483308196</v>
       </c>
+      <c r="G330" t="n">
+        <v>1186.669594158782</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -7724,6 +8716,9 @@
       <c r="F331" t="n">
         <v>5074160558</v>
       </c>
+      <c r="G331" t="n">
+        <v>1191.476682923774</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -7746,6 +8741,9 @@
       <c r="F332" t="n">
         <v>4486976868</v>
       </c>
+      <c r="G332" t="n">
+        <v>1192.38925047408</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -7768,6 +8766,9 @@
       <c r="F333" t="n">
         <v>7275411870</v>
       </c>
+      <c r="G333" t="n">
+        <v>1186.813483265717</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -7790,6 +8791,9 @@
       <c r="F334" t="n">
         <v>7639405818</v>
       </c>
+      <c r="G334" t="n">
+        <v>1194.335423728584</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -7812,6 +8816,9 @@
       <c r="F335" t="n">
         <v>9836925304</v>
       </c>
+      <c r="G335" t="n">
+        <v>1219.673717454641</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -7834,6 +8841,9 @@
       <c r="F336" t="n">
         <v>6857935276</v>
       </c>
+      <c r="G336" t="n">
+        <v>1233.823769536293</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -7856,6 +8866,9 @@
       <c r="F337" t="n">
         <v>6213645709</v>
       </c>
+      <c r="G337" t="n">
+        <v>1248.943663333861</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -7878,6 +8891,9 @@
       <c r="F338" t="n">
         <v>5672609405</v>
       </c>
+      <c r="G338" t="n">
+        <v>1247.541457217192</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -7900,6 +8916,9 @@
       <c r="F339" t="n">
         <v>5174128454</v>
       </c>
+      <c r="G339" t="n">
+        <v>1255.720240862113</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -7922,6 +8941,9 @@
       <c r="F340" t="n">
         <v>6120359523</v>
       </c>
+      <c r="G340" t="n">
+        <v>1256.70937009971</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -7944,6 +8966,9 @@
       <c r="F341" t="n">
         <v>5089212680</v>
       </c>
+      <c r="G341" t="n">
+        <v>1260.44547972322</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -7966,6 +8991,9 @@
       <c r="F342" t="n">
         <v>5752205180</v>
       </c>
+      <c r="G342" t="n">
+        <v>1253.443484792415</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -7988,6 +9016,9 @@
       <c r="F343" t="n">
         <v>6227269815</v>
       </c>
+      <c r="G343" t="n">
+        <v>1260.361696846264</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -8010,6 +9041,9 @@
       <c r="F344" t="n">
         <v>5706183865</v>
       </c>
+      <c r="G344" t="n">
+        <v>1261.342470144464</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -8032,6 +9066,9 @@
       <c r="F345" t="n">
         <v>3282499999</v>
       </c>
+      <c r="G345" t="n">
+        <v>1262.602891426707</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -8054,6 +9091,9 @@
       <c r="F346" t="n">
         <v>3362005848</v>
       </c>
+      <c r="G346" t="n">
+        <v>1262.91930113839</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -8076,6 +9116,9 @@
       <c r="F347" t="n">
         <v>5151109364</v>
       </c>
+      <c r="G347" t="n">
+        <v>1265.844230492464</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -8098,6 +9141,9 @@
       <c r="F348" t="n">
         <v>8812883119</v>
       </c>
+      <c r="G348" t="n">
+        <v>1279.520471453333</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -8120,6 +9166,9 @@
       <c r="F349" t="n">
         <v>7830915428</v>
       </c>
+      <c r="G349" t="n">
+        <v>1286.97253742789</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -8142,6 +9191,9 @@
       <c r="F350" t="n">
         <v>6032859783</v>
       </c>
+      <c r="G350" t="n">
+        <v>1281.817873529902</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -8164,6 +9216,9 @@
       <c r="F351" t="n">
         <v>9297811507</v>
       </c>
+      <c r="G351" t="n">
+        <v>1253.428255000942</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -8186,6 +9241,9 @@
       <c r="F352" t="n">
         <v>5077258586</v>
       </c>
+      <c r="G352" t="n">
+        <v>1237.108575283909</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -8208,6 +9266,9 @@
       <c r="F353" t="n">
         <v>3350092519</v>
       </c>
+      <c r="G353" t="n">
+        <v>1224.010233953167</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -8230,6 +9291,9 @@
       <c r="F354" t="n">
         <v>4943628091</v>
       </c>
+      <c r="G354" t="n">
+        <v>1209.910141285187</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -8252,6 +9316,9 @@
       <c r="F355" t="n">
         <v>6684951715</v>
       </c>
+      <c r="G355" t="n">
+        <v>1211.858509284203</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -8274,6 +9341,9 @@
       <c r="F356" t="n">
         <v>4217182733</v>
       </c>
+      <c r="G356" t="n">
+        <v>1212.293875859637</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -8296,6 +9366,9 @@
       <c r="F357" t="n">
         <v>5297471739</v>
       </c>
+      <c r="G357" t="n">
+        <v>1213.76593912129</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -8318,6 +9391,9 @@
       <c r="F358" t="n">
         <v>4835831923</v>
       </c>
+      <c r="G358" t="n">
+        <v>1215.364310297999</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -8340,6 +9416,9 @@
       <c r="F359" t="n">
         <v>2626153345</v>
       </c>
+      <c r="G359" t="n">
+        <v>1216.810372616077</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -8362,6 +9441,9 @@
       <c r="F360" t="n">
         <v>3942720070</v>
       </c>
+      <c r="G360" t="n">
+        <v>1217.348288495261</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -8384,6 +9466,9 @@
       <c r="F361" t="n">
         <v>3282098400</v>
       </c>
+      <c r="G361" t="n">
+        <v>1219.754807680039</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -8406,6 +9491,9 @@
       <c r="F362" t="n">
         <v>4091530737</v>
       </c>
+      <c r="G362" t="n">
+        <v>1218.01401225417</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -8428,6 +9516,9 @@
       <c r="F363" t="n">
         <v>4991669631</v>
       </c>
+      <c r="G363" t="n">
+        <v>1211.007030186721</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -8450,6 +9541,9 @@
       <c r="F364" t="n">
         <v>4132233940</v>
       </c>
+      <c r="G364" t="n">
+        <v>1208.654106868556</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -8471,6 +9565,9 @@
       </c>
       <c r="F365" t="n">
         <v>4055668253</v>
+      </c>
+      <c r="G365" t="n">
+        <v>1206.298777172902</v>
       </c>
     </row>
   </sheetData>
